--- a/TestData/LV_T2276_T2277_EventExpenseEmailNotificationsRejectApproveRequestAsFirstLevelApprover.xlsx
+++ b/TestData/LV_T2276_T2277_EventExpenseEmailNotificationsRejectApproveRequestAsFirstLevelApprover.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2B9112-B13D-4744-A0F2-575242267F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E22722-EAA8-47D1-B8C4-9580B577174D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
@@ -167,10 +167,10 @@
     <t>Vijay Kumar</t>
   </si>
   <si>
-    <t>Bingo@1234567</t>
-  </si>
-  <si>
     <t>FVATestOpportunity Admin</t>
+  </si>
+  <si>
+    <t>Bingo@12345</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,7 +606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -724,7 +724,7 @@
         <v>15</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>44</v>
@@ -777,7 +777,7 @@
         <v>15</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>44</v>
@@ -800,7 +800,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,7 +822,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -830,7 +830,7 @@
         <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.25">
@@ -840,10 +840,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{3445B329-E5DB-4611-B1CE-B0681D950C43}"/>
-    <hyperlink ref="A3" r:id="rId3" tooltip="mailto:klulla@hl.com.test" display="mailto:klulla@hl.com.test" xr:uid="{C8EC5463-FDDF-464D-9CB8-5D48135FBF68}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{F66D924C-A8D1-422A-8461-D4309A4022A7}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{3445B329-E5DB-4611-B1CE-B0681D950C43}"/>
+    <hyperlink ref="A3" r:id="rId2" tooltip="mailto:klulla@hl.com.test" display="mailto:klulla@hl.com.test" xr:uid="{C8EC5463-FDDF-464D-9CB8-5D48135FBF68}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{F66D924C-A8D1-422A-8461-D4309A4022A7}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{040B7D94-2E5B-42F8-A0F0-87295F1696DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -853,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,7 +876,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -884,7 +884,7 @@
         <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -892,7 +892,7 @@
     <hyperlink ref="A2" r:id="rId1" tooltip="mailto:kspero@hl.com.test" display="mailto:kspero@hl.com.test" xr:uid="{BF9A316F-3890-4091-A712-BAB45FA8B7A3}"/>
     <hyperlink ref="A3" r:id="rId2" tooltip="mailto:klulla@hl.com.test" display="mailto:klulla@hl.com.test" xr:uid="{102C98B0-E08F-485E-82F8-4D662884A9CD}"/>
     <hyperlink ref="B2" r:id="rId3" xr:uid="{1E1DF281-9C0E-478E-A031-394BCFAD2AF4}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{F1A2ACD0-B05E-48F1-B729-9A8B2F996DA6}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{A5CB5B42-29B5-4C5E-92DF-57B2FE012305}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
